--- a/data/outputs/scope/Demo Project/Demo Project_WBS.xlsx
+++ b/data/outputs/scope/Demo Project/Demo Project_WBS.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>프로젝트 완료</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>PM</t>
@@ -622,11 +618,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Phase 1 산출물</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>PM</t>
@@ -659,570 +651,6 @@
       </c>
       <c r="V3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Task 1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Task 1 결과물</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Task 2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Task 2 결과물</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Task 3</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Task 3 결과물</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Phase 2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Phase 2 산출물</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Task 4 결과물</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Task 5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Task 5 결과물</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Task 6</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Task 6 결과물</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Phase 3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Phase 3 산출물</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Task 7</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Task 7 결과물</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Task 8</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Task 8 결과물</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Task 9</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Task 9 결과물</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>개발팀</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
